--- a/docs/StructureDefinition-heart-rate.xlsx
+++ b/docs/StructureDefinition-heart-rate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-heart-rate.xlsx
+++ b/docs/StructureDefinition-heart-rate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-heart-rate.xlsx
+++ b/docs/StructureDefinition-heart-rate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-heart-rate.xlsx
+++ b/docs/StructureDefinition-heart-rate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3813" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3813" uniqueCount="665">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -383,7 +383,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -484,398 +484,390 @@
     <t>A code representing the the type of device used for this observation.  Should only be used if not implicit in the code found in `Observation.code`.</t>
   </si>
   <si>
+    <t>Observation.extension:measurmentDevice.id</t>
+  </si>
+  <si>
+    <t>Observation.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Observation.extension:measurmentDevice.id</t>
-  </si>
-  <si>
-    <t>Observation.extension.id</t>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.extension:measurmentDevice.extension</t>
+  </si>
+  <si>
+    <t>Observation.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.extension:measurmentDevice.url</t>
+  </si>
+  <si>
+    <t>Observation.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/observation-deviceCode</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Observation.extension:measurmentDevice.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/device-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
+    <t>Observation.extension:measurmentDevice.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/vitals/ValueSet/heartRateMeasDeviceVS</t>
+  </si>
+  <si>
+    <t>Observation.extension:exerciseAssociation</t>
+  </si>
+  <si>
+    <t>exerciseAssociation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/vitals/StructureDefinition/ExerciseAssociationExt}
+</t>
+  </si>
+  <si>
+    <t>Exercise Association</t>
+  </si>
+  <si>
+    <t>Observation.extension:bodyPosition</t>
+  </si>
+  <si>
+    <t>bodyPosition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {observation-bodyPosition}
+</t>
+  </si>
+  <si>
+    <t>Body Position</t>
+  </si>
+  <si>
+    <t>The position of the body when the observation was done, e.g. standing, sitting. To be used only when the body position in not precoordinated in the observation code.</t>
+  </si>
+  <si>
+    <t>Observation.extension:bodyPosition.id</t>
+  </si>
+  <si>
+    <t>Observation.extension:bodyPosition.extension</t>
+  </si>
+  <si>
+    <t>Observation.extension:bodyPosition.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/observation-bodyPosition</t>
+  </si>
+  <si>
+    <t>Observation.extension:bodyPosition.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.extension:bodyPosition.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/vitals/ValueSet/bodyPositionVS</t>
+  </si>
+  <si>
+    <t>Observation.extension:measurementSetting</t>
+  </si>
+  <si>
+    <t>measurementSetting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/vitals/StructureDefinition/MeasurementSettingExt}
+</t>
+  </si>
+  <si>
+    <t>Measurement setting</t>
+  </si>
+  <si>
+    <t>Observation.extension:sleepStatus</t>
+  </si>
+  <si>
+    <t>sleepStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/vitals/StructureDefinition/SleepStatusExt}
+</t>
+  </si>
+  <si>
+    <t>Sleep Status</t>
+  </si>
+  <si>
+    <t>Observation.extension:associatedSituation</t>
+  </si>
+  <si>
+    <t>associatedSituation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/vitals/StructureDefinition/AssociatedSituationExt}
+</t>
+  </si>
+  <si>
+    <t>Associated Situation</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
+  </si>
+  <si>
+    <t>value:coding.code}
+value:coding.system}</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat</t>
+  </si>
+  <si>
+    <t>VSCat</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.id</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.extension:measurmentDevice.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension:measurmentDevice.url</t>
-  </si>
-  <si>
-    <t>Observation.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/observation-deviceCode</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Observation.extension:measurmentDevice.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/device-kind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.extension:measurmentDevice.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/vitals/ValueSet/heartRateMeasDeviceVS</t>
-  </si>
-  <si>
-    <t>Observation.extension:exerciseAssociation</t>
-  </si>
-  <si>
-    <t>exerciseAssociation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/vitals/StructureDefinition/ExerciseAssociationExt}
-</t>
-  </si>
-  <si>
-    <t>Exercise Association</t>
-  </si>
-  <si>
-    <t>The exercise state associated with the measurement.</t>
-  </si>
-  <si>
-    <t>Observation.extension:bodyPosition</t>
-  </si>
-  <si>
-    <t>bodyPosition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {observation-bodyPosition}
-</t>
-  </si>
-  <si>
-    <t>Body Position</t>
-  </si>
-  <si>
-    <t>The position of the body when the observation was done, e.g. standing, sitting. To be used only when the body position in not precoordinated in the observation code.</t>
-  </si>
-  <si>
-    <t>Observation.extension:bodyPosition.id</t>
-  </si>
-  <si>
-    <t>Observation.extension:bodyPosition.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension:bodyPosition.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/observation-bodyPosition</t>
-  </si>
-  <si>
-    <t>Observation.extension:bodyPosition.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.extension:bodyPosition.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/vitals/ValueSet/bodyPositionVS</t>
-  </si>
-  <si>
-    <t>Observation.extension:measurementSetting</t>
-  </si>
-  <si>
-    <t>measurementSetting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/vitals/StructureDefinition/MeasurementSettingExt}
-</t>
-  </si>
-  <si>
-    <t>Measurement setting</t>
-  </si>
-  <si>
-    <t>The location or setting the subject was in when the measurement was obtained. For example, home, clinic, hospital. etc.</t>
-  </si>
-  <si>
-    <t>Observation.extension:sleepStatus</t>
-  </si>
-  <si>
-    <t>sleepStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/vitals/StructureDefinition/SleepStatusExt}
-</t>
-  </si>
-  <si>
-    <t>Sleep Status</t>
-  </si>
-  <si>
-    <t>The state of wakefulness during the measurement.</t>
-  </si>
-  <si>
-    <t>Observation.extension:associatedSituation</t>
-  </si>
-  <si>
-    <t>associatedSituation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/vitals/StructureDefinition/AssociatedSituationExt}
-</t>
-  </si>
-  <si>
-    <t>Associated Situation</t>
-  </si>
-  <si>
-    <t>Situations that may affect the measurement or assessment.</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
-</t>
-  </si>
-  <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
-  </si>
-  <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>value:coding.code}
-value:coding.system}</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat</t>
-  </si>
-  <si>
-    <t>VSCat</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.id</t>
-  </si>
-  <si>
-    <t>Observation.category.id</t>
-  </si>
-  <si>
     <t>Observation.category:VSCat.extension</t>
   </si>
   <si>
@@ -1116,7 +1108,7 @@
     <t>This identifies the vital sign result type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1241,7 +1233,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1264,7 +1256,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1320,7 +1312,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {($this as dateTime).toString().length() &gt;= 8}</t>
+vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {$this is dateTime implies $this.toString().length() &gt;= 10}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1363,7 +1355,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1597,7 +1589,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t>obs-6
@@ -1721,7 +1713,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1749,7 +1741,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1829,7 +1821,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1879,7 +1871,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1912,7 +1904,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1949,7 +1941,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -1971,7 +1963,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -2089,7 +2081,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -2439,7 +2431,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="119.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3554,7 +3546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>145</v>
       </c>
@@ -3650,7 +3642,7 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>144</v>
@@ -3676,10 +3668,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3702,13 +3694,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3759,31 +3751,31 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>20</v>
@@ -3794,10 +3786,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3868,7 +3860,7 @@
         <v>141</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>20</v>
@@ -3877,7 +3869,7 @@
         <v>142</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3912,10 +3904,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3941,13 +3933,13 @@
         <v>107</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3955,49 +3947,49 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>93</v>
@@ -4032,10 +4024,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4058,13 +4050,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4091,36 +4083,36 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB14" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AF14" t="s" s="2">
+      <c r="AG14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI14" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>105</v>
@@ -4149,7 +4141,7 @@
         <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>180</v>
@@ -4174,13 +4166,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4229,16 +4221,16 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI15" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>105</v>
@@ -4262,7 +4254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>183</v>
       </c>
@@ -4298,7 +4290,7 @@
         <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4358,7 +4350,7 @@
         <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>144</v>
@@ -4382,15 +4374,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>137</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>20</v>
@@ -4412,13 +4404,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4478,7 +4470,7 @@
         <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>144</v>
@@ -4504,10 +4496,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4530,13 +4522,13 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4587,31 +4579,31 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>20</v>
@@ -4622,10 +4614,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4696,7 +4688,7 @@
         <v>141</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>20</v>
@@ -4705,7 +4697,7 @@
         <v>142</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4740,10 +4732,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4769,13 +4761,13 @@
         <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4783,7 +4775,7 @@
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>20</v>
@@ -4825,7 +4817,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>93</v>
@@ -4860,10 +4852,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4886,13 +4878,13 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4931,26 +4923,26 @@
         <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AF21" t="s" s="2">
+      <c r="AG21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI21" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>105</v>
@@ -4976,10 +4968,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>180</v>
@@ -5004,13 +4996,13 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5041,7 +5033,7 @@
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -5059,16 +5051,16 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI22" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>105</v>
@@ -5092,15 +5084,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>137</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>20</v>
@@ -5122,13 +5114,13 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="M23" t="s" s="2">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5188,7 +5180,7 @@
         <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>144</v>
@@ -5212,15 +5204,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>137</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>20</v>
@@ -5242,13 +5234,13 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5308,7 +5300,7 @@
         <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>144</v>
@@ -5332,15 +5324,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>137</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>20</v>
@@ -5362,13 +5354,13 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5428,7 +5420,7 @@
         <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>144</v>
@@ -5454,14 +5446,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5483,16 +5475,16 @@
         <v>138</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -5541,7 +5533,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5576,10 +5568,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5602,17 +5594,17 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5661,7 +5653,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5676,19 +5668,19 @@
         <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>20</v>
@@ -5696,14 +5688,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5722,17 +5714,17 @@
         <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5781,7 +5773,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5796,16 +5788,16 @@
         <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>20</v>
@@ -5816,14 +5808,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5842,16 +5834,16 @@
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5901,7 +5893,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5916,16 +5908,16 @@
         <v>105</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>20</v>
@@ -5934,12 +5926,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5965,16 +5957,16 @@
         <v>113</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5999,11 +5991,11 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -6021,7 +6013,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>93</v>
@@ -6036,19 +6028,19 @@
         <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>20</v>
@@ -6056,10 +6048,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6082,19 +6074,19 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -6122,16 +6114,16 @@
         <v>117</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
@@ -6141,7 +6133,7 @@
         <v>142</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -6165,24 +6157,24 @@
         <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>20</v>
@@ -6204,19 +6196,19 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -6244,10 +6236,10 @@
         <v>117</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -6265,7 +6257,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -6289,10 +6281,10 @@
         <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>20</v>
@@ -6300,10 +6292,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6326,13 +6318,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6383,31 +6375,31 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -6418,14 +6410,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6447,13 +6439,13 @@
         <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6494,7 +6486,7 @@
         <v>141</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>20</v>
@@ -6503,7 +6495,7 @@
         <v>142</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6527,7 +6519,7 @@
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -6536,12 +6528,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6564,19 +6556,19 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -6625,7 +6617,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6646,10 +6638,10 @@
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -6660,10 +6652,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6686,13 +6678,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6743,31 +6735,31 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
@@ -6778,14 +6770,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6807,13 +6799,13 @@
         <v>138</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6854,7 +6846,7 @@
         <v>141</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>20</v>
@@ -6863,7 +6855,7 @@
         <v>142</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6887,7 +6879,7 @@
         <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6896,12 +6888,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6927,23 +6919,23 @@
         <v>107</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>20</v>
@@ -6985,7 +6977,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -7006,10 +6998,10 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -7020,10 +7012,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7046,16 +7038,16 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -7105,7 +7097,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -7126,24 +7118,24 @@
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP39" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7169,21 +7161,21 @@
         <v>113</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>20</v>
@@ -7225,7 +7217,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -7246,10 +7238,10 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -7260,10 +7252,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7286,17 +7278,17 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -7345,7 +7337,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7366,10 +7358,10 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -7380,10 +7372,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7406,19 +7398,19 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -7467,7 +7459,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7488,10 +7480,10 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -7502,10 +7494,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7528,19 +7520,19 @@
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O43" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -7589,7 +7581,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7610,10 +7602,10 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -7622,16 +7614,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7650,19 +7642,19 @@
         <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O44" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7690,10 +7682,10 @@
         <v>181</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -7711,7 +7703,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>93</v>
@@ -7726,30 +7718,30 @@
         <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AO44" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AP44" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7772,13 +7764,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7829,31 +7821,31 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7864,14 +7856,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7893,13 +7885,13 @@
         <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7940,7 +7932,7 @@
         <v>141</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>20</v>
@@ -7949,7 +7941,7 @@
         <v>142</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7973,7 +7965,7 @@
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7984,10 +7976,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8010,19 +8002,19 @@
         <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -8059,7 +8051,7 @@
         <v>20</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
@@ -8069,7 +8061,7 @@
         <v>142</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -8090,10 +8082,10 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -8104,13 +8096,13 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B48" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C48" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>20</v>
@@ -8132,19 +8124,19 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -8193,7 +8185,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -8214,10 +8206,10 @@
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -8228,10 +8220,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8254,13 +8246,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8311,31 +8303,31 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -8346,14 +8338,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8375,13 +8367,13 @@
         <v>138</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8422,7 +8414,7 @@
         <v>141</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>20</v>
@@ -8431,7 +8423,7 @@
         <v>142</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8455,7 +8447,7 @@
         <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -8466,10 +8458,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8495,23 +8487,23 @@
         <v>107</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>20</v>
@@ -8553,7 +8545,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8574,10 +8566,10 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -8588,10 +8580,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8614,16 +8606,16 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8673,7 +8665,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8694,10 +8686,10 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -8708,10 +8700,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8737,21 +8729,21 @@
         <v>113</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>20</v>
@@ -8793,7 +8785,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8814,10 +8806,10 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8828,10 +8820,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8854,17 +8846,17 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8913,7 +8905,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8934,10 +8926,10 @@
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8948,10 +8940,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8974,19 +8966,19 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
@@ -9035,7 +9027,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -9056,10 +9048,10 @@
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
@@ -9070,10 +9062,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9096,19 +9088,19 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O56" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -9157,7 +9149,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -9178,10 +9170,10 @@
         <v>20</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>20</v>
@@ -9190,12 +9182,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9218,19 +9210,19 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -9279,7 +9271,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9294,19 +9286,19 @@
         <v>105</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AO57" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>20</v>
@@ -9314,10 +9306,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9340,16 +9332,16 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9399,7 +9391,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9420,13 +9412,13 @@
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>20</v>
@@ -9434,14 +9426,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9460,19 +9452,19 @@
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -9521,7 +9513,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9536,34 +9528,34 @@
         <v>105</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AP59" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AN59" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="B60" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9582,19 +9574,19 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -9643,7 +9635,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9652,25 +9644,25 @@
         <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AJ60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>20</v>
@@ -9678,10 +9670,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9704,16 +9696,16 @@
         <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9763,7 +9755,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9784,13 +9776,13 @@
         <v>20</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>20</v>
@@ -9798,10 +9790,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9824,17 +9816,17 @@
         <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9883,7 +9875,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9898,19 +9890,19 @@
         <v>105</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>20</v>
@@ -9918,10 +9910,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9944,19 +9936,19 @@
         <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O63" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
@@ -9993,17 +9985,17 @@
         <v>20</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -10012,7 +10004,7 @@
         <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>105</v>
@@ -10021,30 +10013,30 @@
         <v>20</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP63" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AM63" t="s" s="2">
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AN63" t="s" s="2">
+      <c r="B64" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C64" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>20</v>
@@ -10066,19 +10058,19 @@
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O64" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -10127,7 +10119,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -10136,7 +10128,7 @@
         <v>93</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>105</v>
@@ -10145,27 +10137,27 @@
         <v>20</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>450</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10188,13 +10180,13 @@
         <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10245,31 +10237,31 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>20</v>
@@ -10280,14 +10272,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10309,13 +10301,13 @@
         <v>138</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10356,7 +10348,7 @@
         <v>141</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>20</v>
@@ -10365,7 +10357,7 @@
         <v>142</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10389,7 +10381,7 @@
         <v>20</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>20</v>
@@ -10398,12 +10390,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10426,19 +10418,19 @@
         <v>94</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -10487,7 +10479,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10508,10 +10500,10 @@
         <v>20</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>20</v>
@@ -10522,10 +10514,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10551,65 +10543,65 @@
         <v>113</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q68" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Z68" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="P68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q68" t="s" s="2">
+      <c r="AA68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF68" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10630,24 +10622,24 @@
         <v>20</v>
       </c>
       <c r="AM68" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP68" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10670,17 +10662,17 @@
         <v>94</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -10729,7 +10721,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10750,24 +10742,24 @@
         <v>20</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP69" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10793,21 +10785,21 @@
         <v>107</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>20</v>
@@ -10849,7 +10841,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10858,7 +10850,7 @@
         <v>93</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>105</v>
@@ -10870,10 +10862,10 @@
         <v>20</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>20</v>
@@ -10882,12 +10874,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10913,23 +10905,23 @@
         <v>113</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>20</v>
@@ -10971,7 +10963,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10992,10 +10984,10 @@
         <v>20</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>20</v>
@@ -11004,12 +10996,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11032,19 +11024,19 @@
         <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="O72" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>20</v>
@@ -11072,10 +11064,10 @@
         <v>181</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>20</v>
@@ -11093,7 +11085,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -11102,7 +11094,7 @@
         <v>93</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>105</v>
@@ -11117,7 +11109,7 @@
         <v>136</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>20</v>
@@ -11128,14 +11120,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -11154,19 +11146,19 @@
         <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="O73" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>20</v>
@@ -11195,7 +11187,7 @@
       </c>
       <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>20</v>
@@ -11213,7 +11205,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11231,27 +11223,27 @@
         <v>20</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP73" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>522</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11274,19 +11266,19 @@
         <v>20</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>20</v>
@@ -11335,7 +11327,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11356,10 +11348,10 @@
         <v>20</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>20</v>
@@ -11368,12 +11360,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11396,16 +11388,16 @@
         <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11435,7 +11427,7 @@
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>20</v>
@@ -11453,7 +11445,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11471,27 +11463,27 @@
         <v>20</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP75" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AM75" t="s" s="2">
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AN75" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>540</v>
-      </c>
       <c r="B76" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11514,19 +11506,19 @@
         <v>20</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="O76" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>20</v>
@@ -11555,7 +11547,7 @@
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>20</v>
@@ -11573,7 +11565,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11594,10 +11586,10 @@
         <v>20</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>20</v>
@@ -11608,10 +11600,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11634,16 +11626,16 @@
         <v>20</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N77" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11693,7 +11685,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11711,27 +11703,27 @@
         <v>20</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP77" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>556</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11754,16 +11746,16 @@
         <v>20</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N78" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11813,7 +11805,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11831,27 +11823,27 @@
         <v>20</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP78" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP78" t="s" s="2">
-        <v>565</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11874,19 +11866,19 @@
         <v>20</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>20</v>
@@ -11935,7 +11927,7 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11947,7 +11939,7 @@
         <v>20</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>20</v>
@@ -11956,10 +11948,10 @@
         <v>20</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>20</v>
@@ -11970,10 +11962,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11996,13 +11988,13 @@
         <v>20</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12053,31 +12045,31 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>20</v>
@@ -12088,14 +12080,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12117,13 +12109,13 @@
         <v>138</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -12173,7 +12165,7 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12197,7 +12189,7 @@
         <v>20</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>20</v>
@@ -12208,14 +12200,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12237,16 +12229,16 @@
         <v>138</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>20</v>
@@ -12295,7 +12287,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -12330,10 +12322,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12356,13 +12348,13 @@
         <v>20</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12413,7 +12405,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12422,7 +12414,7 @@
         <v>93</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>105</v>
@@ -12434,10 +12426,10 @@
         <v>20</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>20</v>
@@ -12448,10 +12440,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12474,13 +12466,13 @@
         <v>20</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12531,7 +12523,7 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12540,7 +12532,7 @@
         <v>93</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>105</v>
@@ -12552,10 +12544,10 @@
         <v>20</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>20</v>
@@ -12566,10 +12558,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12592,19 +12584,19 @@
         <v>20</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="O85" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>20</v>
@@ -12632,10 +12624,10 @@
         <v>117</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>20</v>
@@ -12653,7 +12645,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12671,13 +12663,13 @@
         <v>20</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>20</v>
@@ -12688,10 +12680,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12714,19 +12706,19 @@
         <v>20</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="O86" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>20</v>
@@ -12751,13 +12743,13 @@
         <v>20</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>20</v>
@@ -12775,7 +12767,7 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12793,13 +12785,13 @@
         <v>20</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>20</v>
@@ -12810,10 +12802,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12836,17 +12828,17 @@
         <v>20</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>20</v>
@@ -12895,7 +12887,7 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -12919,7 +12911,7 @@
         <v>20</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>20</v>
@@ -12930,10 +12922,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12956,13 +12948,13 @@
         <v>20</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -13013,7 +13005,7 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -13034,10 +13026,10 @@
         <v>20</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>20</v>
@@ -13048,10 +13040,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13074,16 +13066,16 @@
         <v>94</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="N89" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13133,7 +13125,7 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -13154,10 +13146,10 @@
         <v>20</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>20</v>
@@ -13168,10 +13160,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13194,16 +13186,16 @@
         <v>94</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13253,7 +13245,7 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13274,10 +13266,10 @@
         <v>20</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>20</v>
@@ -13286,12 +13278,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13314,19 +13306,19 @@
         <v>94</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>20</v>
@@ -13375,7 +13367,7 @@
         <v>20</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -13387,7 +13379,7 @@
         <v>20</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>20</v>
@@ -13396,10 +13388,10 @@
         <v>20</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>20</v>
@@ -13410,10 +13402,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13436,13 +13428,13 @@
         <v>20</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13493,31 +13485,31 @@
         <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>20</v>
@@ -13528,14 +13520,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13557,13 +13549,13 @@
         <v>138</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13613,7 +13605,7 @@
         <v>20</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
@@ -13637,7 +13629,7 @@
         <v>20</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>20</v>
@@ -13648,14 +13640,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13677,16 +13669,16 @@
         <v>138</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>20</v>
@@ -13735,7 +13727,7 @@
         <v>20</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -13768,12 +13760,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13796,19 +13788,19 @@
         <v>94</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="O95" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>20</v>
@@ -13836,10 +13828,10 @@
         <v>181</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>20</v>
@@ -13857,7 +13849,7 @@
         <v>20</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>93</v>
@@ -13875,27 +13867,27 @@
         <v>20</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AP95" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13918,19 +13910,19 @@
         <v>94</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="N96" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="L96" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>652</v>
-      </c>
       <c r="O96" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>20</v>
@@ -13955,13 +13947,13 @@
         <v>20</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>254</v>
+        <v>181</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>20</v>
@@ -13979,7 +13971,7 @@
         <v>20</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -13988,7 +13980,7 @@
         <v>93</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>105</v>
@@ -13997,27 +13989,27 @@
         <v>20</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14040,19 +14032,19 @@
         <v>20</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>20</v>
@@ -14080,10 +14072,10 @@
         <v>181</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>20</v>
@@ -14101,7 +14093,7 @@
         <v>20</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
@@ -14110,7 +14102,7 @@
         <v>93</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>105</v>
@@ -14125,7 +14117,7 @@
         <v>136</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>20</v>
@@ -14136,14 +14128,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14162,19 +14154,19 @@
         <v>20</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="O98" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>20</v>
@@ -14202,10 +14194,10 @@
         <v>181</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>20</v>
@@ -14223,7 +14215,7 @@
         <v>20</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14241,27 +14233,27 @@
         <v>20</v>
       </c>
       <c r="AL98" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP98" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP98" t="s" s="2">
-        <v>522</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14287,16 +14279,16 @@
         <v>20</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>20</v>
@@ -14345,7 +14337,7 @@
         <v>20</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -14366,10 +14358,10 @@
         <v>20</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>20</v>
@@ -14380,12 +14372,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP99">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/docs/StructureDefinition-heart-rate.xlsx
+++ b/docs/StructureDefinition-heart-rate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-heart-rate.xlsx
+++ b/docs/StructureDefinition-heart-rate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-heart-rate.xlsx
+++ b/docs/StructureDefinition-heart-rate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-heart-rate.xlsx
+++ b/docs/StructureDefinition-heart-rate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-heart-rate.xlsx
+++ b/docs/StructureDefinition-heart-rate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
